--- a/Students/30425/Lab30425.xlsx
+++ b/Students/30425/Lab30425.xlsx
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,10 +2120,12 @@
       <c r="R17" s="4">
         <v>10</v>
       </c>
-      <c r="S17" s="4"/>
+      <c r="S17" s="4">
+        <v>3.5</v>
+      </c>
       <c r="T17" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6.75</v>
       </c>
       <c r="U17" s="12" t="str">
         <f t="shared" si="2"/>

--- a/Students/30425/Lab30425.xlsx
+++ b/Students/30425/Lab30425.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="45">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,8 +1226,12 @@
       <c r="N2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q2">
         <v>0.05</v>
       </c>
@@ -1237,8 +1241,14 @@
       <c r="S2" s="4">
         <v>3.6</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="T2" s="4">
+        <f>IF((R2+S2)/2 + Q2 &gt; 10, 10, (R2+S2)/2 + Q2)</f>
+        <v>6.85</v>
+      </c>
+      <c r="U2" s="4" t="str">
+        <f>IF(AND(R2&gt;5, S2&gt;5), "pass", "fail")</f>
+        <v>fail</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1282,8 +1292,12 @@
       <c r="N3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q3">
         <v>0.2</v>
       </c>
@@ -1344,8 +1358,12 @@
       <c r="N4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q4">
         <v>0.2</v>
       </c>
@@ -1406,8 +1424,12 @@
       <c r="N5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q5">
         <v>0.3</v>
       </c>
@@ -1468,8 +1490,12 @@
       <c r="N6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="R6" s="3">
         <v>1</v>
       </c>
@@ -1527,8 +1553,12 @@
       <c r="N7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q7">
         <v>0.08</v>
       </c>
@@ -1589,8 +1619,12 @@
       <c r="N8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q8">
         <v>0.15</v>
       </c>
@@ -1651,8 +1685,12 @@
       <c r="N9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q9">
         <v>0.3</v>
       </c>
@@ -1713,8 +1751,12 @@
       <c r="N10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q10">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1775,8 +1817,12 @@
       <c r="N11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="O11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q11">
         <v>0.15</v>
       </c>
@@ -1837,8 +1883,12 @@
       <c r="N12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="O12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q12">
         <v>0.16</v>
       </c>
@@ -1932,8 +1982,12 @@
       <c r="N14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q14">
         <v>0.09</v>
       </c>
@@ -1994,8 +2048,12 @@
       <c r="N15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q15">
         <v>0.15</v>
       </c>
@@ -2056,8 +2114,12 @@
       <c r="N16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="R16" s="3">
         <v>1</v>
       </c>
@@ -2115,8 +2177,12 @@
       <c r="N17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="O17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R17" s="4">
         <v>10</v>
       </c>
@@ -2174,8 +2240,12 @@
       <c r="N18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="O18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="R18" s="3">
         <v>10</v>
       </c>
@@ -2233,8 +2303,12 @@
       <c r="N19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q19">
         <v>0.1</v>
       </c>
@@ -2295,8 +2369,12 @@
       <c r="N20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q20">
         <v>0.05</v>
       </c>
@@ -2357,8 +2435,12 @@
       <c r="N21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q21">
         <v>0.08</v>
       </c>
@@ -2419,8 +2501,12 @@
       <c r="N22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="Q22">
         <v>0.05</v>
       </c>
@@ -2481,8 +2567,12 @@
       <c r="N23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="Q23">
         <v>0.11</v>
       </c>

--- a/Students/30425/Lab30425.xlsx
+++ b/Students/30425/Lab30425.xlsx
@@ -731,7 +731,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -748,11 +748,16 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1104,7 +1109,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="U23" sqref="Q1:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,19 +1173,19 @@
       <c r="P1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1232,20 +1237,20 @@
       <c r="P2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="13">
         <v>0.05</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="11">
         <v>10</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="11">
         <v>3.6</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="11">
         <f>IF((R2+S2)/2 + Q2 &gt; 10, 10, (R2+S2)/2 + Q2)</f>
         <v>6.85</v>
       </c>
-      <c r="U2" s="4" t="str">
+      <c r="U2" s="11" t="str">
         <f>IF(AND(R2&gt;5, S2&gt;5), "pass", "fail")</f>
         <v>fail</v>
       </c>
@@ -1298,20 +1303,20 @@
       <c r="P3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="13">
         <v>0.2</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="10">
         <v>10</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="10">
         <v>3.8</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="10">
         <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
         <v>7.1000000000000005</v>
       </c>
-      <c r="U3" s="11" t="str">
+      <c r="U3" s="10" t="str">
         <f>IF(AND(R3&gt;5, S3&gt;5), "pass", "fail")</f>
         <v>fail</v>
       </c>
@@ -1364,20 +1369,20 @@
       <c r="P4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="13">
         <v>0.2</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="10">
         <v>10</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="10">
         <f t="shared" ref="T4:T23" si="1">IF((R4+S4)/2 + Q4 &gt; 10, 10, (R4+S4)/2 + Q4)</f>
         <v>9.5499999999999989</v>
       </c>
-      <c r="U4" s="11" t="str">
+      <c r="U4" s="10" t="str">
         <f t="shared" ref="U4:U23" si="2">IF(AND(R4&gt;5, S4&gt;5), "pass", "fail")</f>
         <v>pass</v>
       </c>
@@ -1430,20 +1435,20 @@
       <c r="P5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="13">
         <v>0.3</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="11">
         <v>10</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="11">
         <v>9.4</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="U5" s="12" t="str">
+      <c r="U5" s="11" t="str">
         <f t="shared" si="2"/>
         <v>pass</v>
       </c>
@@ -1496,17 +1501,18 @@
       <c r="P6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="3">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="10">
         <v>1</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="10">
         <v>3.6</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="U6" s="11" t="str">
+      <c r="U6" s="10" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -1559,20 +1565,20 @@
       <c r="P7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="13">
         <v>0.08</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="11">
         <v>7.5</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="11">
         <v>4</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="11">
         <f t="shared" si="1"/>
         <v>5.83</v>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="11" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -1625,20 +1631,20 @@
       <c r="P8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="13">
         <v>0.15</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="10">
         <v>10</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="10">
         <f t="shared" si="1"/>
         <v>9.25</v>
       </c>
-      <c r="U8" s="11" t="str">
+      <c r="U8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>pass</v>
       </c>
@@ -1691,20 +1697,20 @@
       <c r="P9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="13">
         <v>0.3</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="11">
         <v>7</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="11">
         <v>3.5</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="11">
         <f t="shared" si="1"/>
         <v>5.55</v>
       </c>
-      <c r="U9" s="12" t="str">
+      <c r="U9" s="11" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -1757,20 +1763,20 @@
       <c r="P10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="10">
         <v>1</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="10">
         <v>2.8</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="10">
         <f t="shared" si="1"/>
         <v>1.97</v>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="10" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -1823,20 +1829,20 @@
       <c r="P11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="13">
         <v>0.15</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="11">
         <v>1</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="11">
         <v>4</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="11">
         <f t="shared" si="1"/>
         <v>2.65</v>
       </c>
-      <c r="U11" s="12" t="str">
+      <c r="U11" s="11" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -1889,20 +1895,20 @@
       <c r="P12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="13">
         <v>0.16</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="10">
         <v>7.5</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="10">
         <v>3.5</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="10">
         <f t="shared" si="1"/>
         <v>5.66</v>
       </c>
-      <c r="U12" s="11" t="str">
+      <c r="U12" s="10" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -1929,13 +1935,14 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="12">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="12" t="str">
+      <c r="U13" s="11" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -1988,20 +1995,20 @@
       <c r="P14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="13">
         <v>0.09</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="10">
         <v>7</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="10">
         <v>3.4</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="10">
         <f t="shared" si="1"/>
         <v>5.29</v>
       </c>
-      <c r="U14" s="11" t="str">
+      <c r="U14" s="10" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -2054,20 +2061,20 @@
       <c r="P15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="13">
         <v>0.15</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="11">
         <v>10</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="11">
         <v>4.2</v>
       </c>
-      <c r="T15" s="12">
+      <c r="T15" s="11">
         <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
-      <c r="U15" s="12" t="str">
+      <c r="U15" s="11" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -2120,17 +2127,18 @@
       <c r="P16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="3">
+      <c r="Q16" s="13"/>
+      <c r="R16" s="10">
         <v>1</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="10">
         <v>5.7</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="10">
         <f t="shared" si="1"/>
         <v>3.35</v>
       </c>
-      <c r="U16" s="11" t="str">
+      <c r="U16" s="10" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -2183,17 +2191,18 @@
       <c r="P17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="4">
+      <c r="Q17" s="13"/>
+      <c r="R17" s="11">
         <v>10</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="11">
         <v>3.5</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="11">
         <f t="shared" si="1"/>
         <v>6.75</v>
       </c>
-      <c r="U17" s="12" t="str">
+      <c r="U17" s="11" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -2246,17 +2255,18 @@
       <c r="P18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="3">
+      <c r="Q18" s="13"/>
+      <c r="R18" s="10">
         <v>10</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="10">
         <v>7.4</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="10">
         <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="U18" s="11" t="str">
+      <c r="U18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>pass</v>
       </c>
@@ -2309,20 +2319,20 @@
       <c r="P19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="13">
         <v>0.1</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="11">
         <v>10</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="11">
         <v>7.7</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="11">
         <f t="shared" si="1"/>
         <v>8.9499999999999993</v>
       </c>
-      <c r="U19" s="12" t="str">
+      <c r="U19" s="11" t="str">
         <f t="shared" si="2"/>
         <v>pass</v>
       </c>
@@ -2375,20 +2385,20 @@
       <c r="P20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="13">
         <v>0.05</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="10">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="10">
         <v>4</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="10">
         <f t="shared" si="1"/>
         <v>4.05</v>
       </c>
-      <c r="U20" s="11" t="str">
+      <c r="U20" s="10" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -2441,20 +2451,20 @@
       <c r="P21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="13">
         <v>0.08</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="11">
         <v>10</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="11">
         <v>2.9</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="11">
         <f t="shared" si="1"/>
         <v>6.53</v>
       </c>
-      <c r="U21" s="12" t="str">
+      <c r="U21" s="11" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -2507,20 +2517,20 @@
       <c r="P22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="13">
         <v>0.05</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="10">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="10">
         <v>2.6</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="10">
         <f t="shared" si="1"/>
         <v>3.3499999999999996</v>
       </c>
-      <c r="U22" s="11" t="str">
+      <c r="U22" s="10" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -2573,20 +2583,20 @@
       <c r="P23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="13">
         <v>0.11</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="11">
         <v>10</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="11">
         <v>5.8</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="11">
         <f t="shared" si="1"/>
         <v>8.01</v>
       </c>
-      <c r="U23" s="12" t="str">
+      <c r="U23" s="11" t="str">
         <f t="shared" si="2"/>
         <v>pass</v>
       </c>

--- a/Students/30425/Lab30425.xlsx
+++ b/Students/30425/Lab30425.xlsx
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="Q1:U23"/>
+      <selection activeCell="Q2" sqref="Q2:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,15 +1244,15 @@
         <v>10</v>
       </c>
       <c r="S2" s="11">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="T2" s="11">
         <f>IF((R2+S2)/2 + Q2 &gt; 10, 10, (R2+S2)/2 + Q2)</f>
-        <v>6.85</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="U2" s="11" t="str">
         <f>IF(AND(R2&gt;5, S2&gt;5), "pass", "fail")</f>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1310,15 +1310,15 @@
         <v>10</v>
       </c>
       <c r="S3" s="10">
-        <v>3.8</v>
+        <v>9.75</v>
       </c>
       <c r="T3" s="10">
         <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
-        <v>7.1000000000000005</v>
+        <v>10</v>
       </c>
       <c r="U3" s="10" t="str">
         <f>IF(AND(R3&gt;5, S3&gt;5), "pass", "fail")</f>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1572,15 +1572,15 @@
         <v>7.5</v>
       </c>
       <c r="S7" s="11">
-        <v>4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="T7" s="11">
         <f t="shared" si="1"/>
-        <v>5.83</v>
+        <v>8.18</v>
       </c>
       <c r="U7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1704,15 +1704,15 @@
         <v>7</v>
       </c>
       <c r="S9" s="11">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="T9" s="11">
         <f t="shared" si="1"/>
-        <v>5.55</v>
+        <v>8</v>
       </c>
       <c r="U9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1767,14 +1767,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="R10" s="10">
-        <v>1</v>
+        <v>6.75</v>
       </c>
       <c r="S10" s="10">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="T10" s="10">
         <f t="shared" si="1"/>
-        <v>1.97</v>
+        <v>5.4450000000000003</v>
       </c>
       <c r="U10" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1833,18 +1833,18 @@
         <v>0.15</v>
       </c>
       <c r="R11" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S11" s="11">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="T11" s="11">
         <f t="shared" si="1"/>
-        <v>2.65</v>
+        <v>7.5500000000000007</v>
       </c>
       <c r="U11" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,15 +1902,15 @@
         <v>7.5</v>
       </c>
       <c r="S12" s="10">
-        <v>3.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T12" s="10">
         <f t="shared" si="1"/>
-        <v>5.66</v>
+        <v>6.46</v>
       </c>
       <c r="U12" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2002,15 +2002,15 @@
         <v>7</v>
       </c>
       <c r="S14" s="10">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="T14" s="10">
         <f t="shared" si="1"/>
-        <v>5.29</v>
+        <v>6.1899999999999995</v>
       </c>
       <c r="U14" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2068,15 +2068,15 @@
         <v>10</v>
       </c>
       <c r="S15" s="11">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="T15" s="11">
         <f t="shared" si="1"/>
-        <v>7.25</v>
+        <v>9.65</v>
       </c>
       <c r="U15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2129,18 +2129,18 @@
       </c>
       <c r="Q16" s="13"/>
       <c r="R16" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S16" s="10">
         <v>5.7</v>
       </c>
       <c r="T16" s="10">
         <f t="shared" si="1"/>
-        <v>3.35</v>
+        <v>7.85</v>
       </c>
       <c r="U16" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2196,15 +2196,15 @@
         <v>10</v>
       </c>
       <c r="S17" s="11">
-        <v>3.5</v>
+        <v>7.1</v>
       </c>
       <c r="T17" s="11">
         <f t="shared" si="1"/>
-        <v>6.75</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="U17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2389,18 +2389,18 @@
         <v>0.05</v>
       </c>
       <c r="R20" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S20" s="10">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="T20" s="10">
         <f t="shared" si="1"/>
-        <v>4.05</v>
+        <v>7.1749999999999998</v>
       </c>
       <c r="U20" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2458,15 +2458,15 @@
         <v>10</v>
       </c>
       <c r="S21" s="11">
-        <v>2.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="T21" s="11">
         <f t="shared" si="1"/>
-        <v>6.53</v>
+        <v>9.23</v>
       </c>
       <c r="U21" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2521,14 +2521,14 @@
         <v>0.05</v>
       </c>
       <c r="R22" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S22" s="10">
-        <v>2.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T22" s="10">
         <f t="shared" si="1"/>
-        <v>3.3499999999999996</v>
+        <v>6.85</v>
       </c>
       <c r="U22" s="10" t="str">
         <f t="shared" si="2"/>

--- a/Students/30425/Lab30425.xlsx
+++ b/Students/30425/Lab30425.xlsx
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:U23"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
